--- a/pivot_table.xlsx
+++ b/pivot_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,50 +538,10 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Lucie</t>
+          <t>Ludmila</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Ludmila</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Neva</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Nola</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Nora</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
         <v>1</v>
       </c>
     </row>
